--- a/Lala/reg/ntl_analysis_v2.xlsx
+++ b/Lala/reg/ntl_analysis_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meizahra/Documents/nitelite/Lala/reg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDFAB4A-6B83-C443-878B-86BE7F9815B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3C3532D9-EF8B-2A43-BF85-BEFAFCF8F86C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="159">
   <si>
     <t/>
   </si>
@@ -452,18 +452,6 @@
     <t>0.545</t>
   </si>
   <si>
-    <t>0.546</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>0.529</t>
-  </si>
-  <si>
     <t>0.837</t>
   </si>
   <si>
@@ -504,6 +492,12 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp; \checkmark &amp; &amp; \checkmark &amp; &amp; \checkmark &amp; &amp; \checkmark &amp; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp; &amp; \checkmark &amp; &amp; \checkmark &amp; &amp; \checkmark &amp; &amp; \checkmark </t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1370,7 @@
   <dimension ref="A2:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1598,14 +1592,14 @@
       <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
+      <c r="E6" s="4">
+        <v>-3.44E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-3.1800000000000002E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-3.3399999999999999E-2</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>35</v>
@@ -1616,20 +1610,20 @@
       <c r="J6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>36</v>
+      <c r="K6" s="4">
+        <v>-3.09E-2</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>37</v>
+      <c r="M6" s="4">
+        <v>-2.7E-2</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>38</v>
+      <c r="O6" s="4">
+        <v>-3.5299999999999998E-2</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>0</v>
@@ -3839,32 +3833,32 @@
       <c r="A51" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>143</v>
+      <c r="B51" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.54600000000000004</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>147</v>
+      <c r="E51" s="4">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.83699999999999997</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.83699999999999997</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>0</v>
@@ -3887,16 +3881,16 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>0</v>
@@ -3937,7 +3931,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>0</v>
@@ -3967,27 +3961,27 @@
         <v>0</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>0</v>
@@ -3999,22 +3993,22 @@
         <v>0</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>0</v>
@@ -4037,7 +4031,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>0</v>
@@ -4058,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>0</v>
@@ -4087,7 +4081,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>0</v>
@@ -4099,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>0</v>
@@ -4137,12 +4131,12 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4152,17 +4146,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4367,36 +4361,46 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
